--- a/clematis_dbgi/pos/metadata/treated/clematis_dbgi_metadata.xlsx
+++ b/clematis_dbgi/pos/metadata/treated/clematis_dbgi_metadata.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lecab\gitrepo\plantes_ornementales\ornamental\clematis_dbgi\pos\metadata\treated\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE695AE2-0FE6-4AC9-9FE3-F4FCDCBDE3F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="2490" yWindow="1560" windowWidth="14670" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,187 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="58">
+  <si>
+    <t>filename</t>
+  </si>
+  <si>
+    <t>sample_id</t>
+  </si>
+  <si>
+    <t>sample_type</t>
+  </si>
+  <si>
+    <t>ATTRIBUTE_species</t>
+  </si>
+  <si>
+    <t>ATTRIBUTE_genus</t>
+  </si>
+  <si>
+    <t>ATTRIBUTE_localisation</t>
+  </si>
+  <si>
+    <t>1685365277_ALC_dbgi_001140_01_01.mzML</t>
+  </si>
+  <si>
+    <t>dbgi_001140</t>
+  </si>
+  <si>
+    <t>sample</t>
+  </si>
+  <si>
+    <t>Clematis terniflora</t>
+  </si>
+  <si>
+    <t>Clematis</t>
+  </si>
+  <si>
+    <t>jbn</t>
+  </si>
+  <si>
+    <t>1685365277_ALC_dbgi_001142_01_01.mzML</t>
+  </si>
+  <si>
+    <t>dbgi_001142</t>
+  </si>
+  <si>
+    <t>Clematis koreana</t>
+  </si>
+  <si>
+    <t>1685365277_ALC_dbgi_001144_01_01.mzML</t>
+  </si>
+  <si>
+    <t>dbgi_001144</t>
+  </si>
+  <si>
+    <t>1685365277_ALC_dbgi_001146_01_02.mzML</t>
+  </si>
+  <si>
+    <t>dbgi_001146</t>
+  </si>
+  <si>
+    <t>Clematis tangutica</t>
+  </si>
+  <si>
+    <t>1685365277_ALC_dbgi_001150_01_01.mzML</t>
+  </si>
+  <si>
+    <t>dbgi_001150</t>
+  </si>
+  <si>
+    <t>Clematis chinensis</t>
+  </si>
+  <si>
+    <t>1685365277_ALC_dbgi_001152_01_01.mzML</t>
+  </si>
+  <si>
+    <t>dbgi_001152</t>
+  </si>
+  <si>
+    <t>Clematis flammula</t>
+  </si>
+  <si>
+    <t>1685365277_ALC_dbgi_001153_01_01.mzML</t>
+  </si>
+  <si>
+    <t>dbgi_001153</t>
+  </si>
+  <si>
+    <t>1685365277_ALC_dbgi_001156_01_01.mzML</t>
+  </si>
+  <si>
+    <t>dbgi_001156</t>
+  </si>
+  <si>
+    <t>Clematis alpina</t>
+  </si>
+  <si>
+    <t>jbuf</t>
+  </si>
+  <si>
+    <t>1685365277_ALC_dbgi_001160_01_01.mzML</t>
+  </si>
+  <si>
+    <t>dbgi_001160</t>
+  </si>
+  <si>
+    <t>1685365277_ALC_dbgi_001161_01_01.mzML</t>
+  </si>
+  <si>
+    <t>dbgi_001161</t>
+  </si>
+  <si>
+    <t>Clematis vitalba</t>
+  </si>
+  <si>
+    <t>1685365277_ALC_dbgi_001162_01_01.mzML</t>
+  </si>
+  <si>
+    <t>dbgi_001162</t>
+  </si>
+  <si>
+    <t>Clematis recta</t>
+  </si>
+  <si>
+    <t>1685365277_ALC_dbgi_001173_01_01.mzML</t>
+  </si>
+  <si>
+    <t>dbgi_001173</t>
+  </si>
+  <si>
+    <t>1685365277_ALC_dbgi_001175_01_01.mzML</t>
+  </si>
+  <si>
+    <t>dbgi_001175</t>
+  </si>
+  <si>
+    <t>Clematis viticella</t>
+  </si>
+  <si>
+    <t>1685365277_ALC_dbgi_001182_01_01.mzML</t>
+  </si>
+  <si>
+    <t>dbgi_001182</t>
+  </si>
+  <si>
+    <t>1685365277_ALC_dbgi_001185_01_01.mzML</t>
+  </si>
+  <si>
+    <t>dbgi_001185</t>
+  </si>
+  <si>
+    <t>Clematis heracleifolia</t>
+  </si>
+  <si>
+    <t>1685365277_ALC_dbgi_001186_01_01.mzML</t>
+  </si>
+  <si>
+    <t>dbgi_001186</t>
+  </si>
+  <si>
+    <t>1685365277_ALC_dbgi_001188_01_01.mzML</t>
+  </si>
+  <si>
+    <t>dbgi_001188</t>
+  </si>
+  <si>
+    <t>1685365277_ALC_dbgi_BK00.mzML</t>
+  </si>
+  <si>
+    <t>BK00_dbgi</t>
+  </si>
+  <si>
+    <t>BK</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,13 +515,396 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/clematis_dbgi/pos/metadata/treated/clematis_dbgi_metadata.xlsx
+++ b/clematis_dbgi/pos/metadata/treated/clematis_dbgi_metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lecab\gitrepo\plantes_ornementales\ornamental\clematis_dbgi\pos\metadata\treated\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE695AE2-0FE6-4AC9-9FE3-F4FCDCBDE3F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B071B7-ABAF-4E3C-A8D6-029CC29A3EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2490" yWindow="1560" windowWidth="14670" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -519,10 +519,14 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">

--- a/clematis_dbgi/pos/metadata/treated/clematis_dbgi_metadata.xlsx
+++ b/clematis_dbgi/pos/metadata/treated/clematis_dbgi_metadata.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lecab\gitrepo\plantes_ornementales\ornamental\clematis_dbgi\pos\metadata\treated\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B071B7-ABAF-4E3C-A8D6-029CC29A3EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{396E6353-BEA6-4947-8E19-7F99866BBF17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$F$19</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -516,15 +519,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="B1" sqref="B1:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -548,7 +553,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -668,7 +673,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -688,7 +693,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -708,7 +713,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -768,7 +773,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -848,7 +853,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>50</v>
       </c>
@@ -909,6 +914,24 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F19" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="BK00_dbgi"/>
+        <filter val="dbgi_001142"/>
+        <filter val="dbgi_001144"/>
+        <filter val="dbgi_001146"/>
+        <filter val="dbgi_001150"/>
+        <filter val="dbgi_001152"/>
+        <filter val="dbgi_001161"/>
+        <filter val="dbgi_001162"/>
+        <filter val="dbgi_001175"/>
+        <filter val="dbgi_001182"/>
+        <filter val="dbgi_001185"/>
+        <filter val="dbgi_001188"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>